--- a/Android/Document/YXY/iTree任务发布表-Android-苑雪元.xlsx
+++ b/Android/Document/YXY/iTree任务发布表-Android-苑雪元.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,30 @@
 b) 使用开源框架减少开发时间、提高性能。
 c) 界面保证：简单、友好、易接受
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苑雪元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用开源框架xUtils进行重构数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构简历数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本掌握DBUtils,但是其中的耦合性较强，未达到完全修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于其中的耦合性，暂时不知道如何解除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和谭亚东商量并且一起完善数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,20 +312,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -627,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,14 +666,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -661,11 +685,11 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -677,11 +701,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>1.3</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -713,23 +737,23 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -747,121 +771,135 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>42307</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -871,72 +909,84 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="D5:F5"/>
@@ -950,18 +1000,6 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -980,14 +1018,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -997,9 +1035,9 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1009,9 +1047,9 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1035,19 +1073,19 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -1063,29 +1101,29 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1095,87 +1133,87 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1185,78 +1223,81 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -1267,15 +1308,12 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
